--- a/excel_files/report_fixed.xlsx
+++ b/excel_files/report_fixed.xlsx
@@ -1409,7 +1409,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1418,202 +1418,219 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>国家</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>现存确诊</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>累计确诊</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>治愈</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>死亡</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>美国</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>西班牙</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>意大利</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>德国</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>中国</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>法国</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>伊朗</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>英国</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>土耳其</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>比利时</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>现存确诊</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>393505</v>
       </c>
       <c r="C2" t="n">
+        <v>432438</v>
+      </c>
+      <c r="D2" t="n">
+        <v>24125</v>
+      </c>
+      <c r="E2" t="n">
+        <v>14808</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>西班牙</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>89187</v>
-      </c>
-      <c r="D2" t="n">
-        <v>95727</v>
-      </c>
-      <c r="E2" t="n">
-        <v>56169</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2175</v>
-      </c>
-      <c r="G2" t="n">
-        <v>50466</v>
-      </c>
-      <c r="H2" t="n">
-        <v>30867</v>
-      </c>
-      <c r="I2" t="n">
-        <v>53501</v>
-      </c>
-      <c r="J2" t="n">
-        <v>35568</v>
-      </c>
-      <c r="K2" t="n">
-        <v>18291</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>累计确诊</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>432438</v>
       </c>
       <c r="C3" t="n">
         <v>152446</v>
       </c>
       <c r="D3" t="n">
+        <v>48021</v>
+      </c>
+      <c r="E3" t="n">
+        <v>15238</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>意大利</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>95727</v>
+      </c>
+      <c r="C4" t="n">
         <v>139887</v>
-      </c>
-      <c r="E3" t="n">
-        <v>108202</v>
-      </c>
-      <c r="F3" t="n">
-        <v>83264</v>
-      </c>
-      <c r="G3" t="n">
-        <v>82048</v>
-      </c>
-      <c r="H3" t="n">
-        <v>67286</v>
-      </c>
-      <c r="I3" t="n">
-        <v>60733</v>
-      </c>
-      <c r="J3" t="n">
-        <v>38226</v>
-      </c>
-      <c r="K3" t="n">
-        <v>23403</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>治愈人数</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>24125</v>
-      </c>
-      <c r="C4" t="n">
-        <v>48021</v>
       </c>
       <c r="D4" t="n">
         <v>26491</v>
       </c>
       <c r="E4" t="n">
+        <v>17669</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>德国</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>56169</v>
+      </c>
+      <c r="C5" t="n">
+        <v>108202</v>
+      </c>
+      <c r="D5" t="n">
         <v>49926</v>
-      </c>
-      <c r="F4" t="n">
-        <v>77745</v>
-      </c>
-      <c r="G4" t="n">
-        <v>21254</v>
-      </c>
-      <c r="H4" t="n">
-        <v>32309</v>
-      </c>
-      <c r="I4" t="n">
-        <v>135</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1846</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2872</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>死亡人数</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>14808</v>
-      </c>
-      <c r="C5" t="n">
-        <v>15238</v>
-      </c>
-      <c r="D5" t="n">
-        <v>17669</v>
       </c>
       <c r="E5" t="n">
         <v>2107</v>
       </c>
-      <c r="F5" t="n">
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>中国</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2175</v>
+      </c>
+      <c r="C6" t="n">
+        <v>83264</v>
+      </c>
+      <c r="D6" t="n">
+        <v>77745</v>
+      </c>
+      <c r="E6" t="n">
         <v>3344</v>
       </c>
-      <c r="G5" t="n">
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>法国</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>50466</v>
+      </c>
+      <c r="C7" t="n">
+        <v>82048</v>
+      </c>
+      <c r="D7" t="n">
+        <v>21254</v>
+      </c>
+      <c r="E7" t="n">
         <v>10328</v>
       </c>
-      <c r="H5" t="n">
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>伊朗</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>30867</v>
+      </c>
+      <c r="C8" t="n">
+        <v>67286</v>
+      </c>
+      <c r="D8" t="n">
+        <v>32309</v>
+      </c>
+      <c r="E8" t="n">
         <v>4110</v>
       </c>
-      <c r="I5" t="n">
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>英国</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>53501</v>
+      </c>
+      <c r="C9" t="n">
+        <v>60733</v>
+      </c>
+      <c r="D9" t="n">
+        <v>135</v>
+      </c>
+      <c r="E9" t="n">
         <v>7097</v>
       </c>
-      <c r="J5" t="n">
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>土耳其</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>35568</v>
+      </c>
+      <c r="C10" t="n">
+        <v>38226</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1846</v>
+      </c>
+      <c r="E10" t="n">
         <v>812</v>
       </c>
-      <c r="K5" t="n">
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>比利时</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>18291</v>
+      </c>
+      <c r="C11" t="n">
+        <v>23403</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2872</v>
+      </c>
+      <c r="E11" t="n">
         <v>2240</v>
       </c>
     </row>
@@ -1654,12 +1671,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>currentConfirmedCount</t>
+          <t>现存确诊</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>confirmedCount</t>
+          <t>累计确诊</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -2986,12 +3003,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>currentConfirmedCount</t>
+          <t>现存确诊</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>confirmedCount</t>
+          <t>累计确诊</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -3100,12 +3117,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>currentConfirmedCount</t>
+          <t>现存确诊</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>confirmedCount</t>
+          <t>累计确诊</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -4345,12 +4362,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>currentConfirmedCount</t>
+          <t>现存确诊</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>confirmedCount</t>
+          <t>累计确诊</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -4836,12 +4853,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>currentConfirmedCount</t>
+          <t>现存确诊</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>confirmedCount</t>
+          <t>累计确诊</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -5124,12 +5141,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>currentConfirmedCount</t>
+          <t>现存确诊</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>confirmedCount</t>
+          <t>累计确诊</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -6717,12 +6734,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>currentConfirmedCount</t>
+          <t>现存确诊</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>confirmedCount</t>
+          <t>累计确诊</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -8358,7 +8375,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>confirmedCount</t>
+          <t>累计确诊</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -8368,7 +8385,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>currentConfirmedCount</t>
+          <t>现存确诊</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">

--- a/excel_files/report_fixed.xlsx
+++ b/excel_files/report_fixed.xlsx
@@ -393,22 +393,22 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>currentConfirmedCount</t>
+          <t>当前确诊</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>confirmedCount</t>
+          <t>累计确诊</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>curedCount</t>
+          <t>治愈</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>deadCount</t>
+          <t>死亡</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1420,25 +1420,35 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>国家</t>
+          <t>continentName</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>现存确诊</t>
+          <t>countryName</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>provinceName</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>当前确诊</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>累计确诊</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>治愈</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>死亡</t>
         </is>
@@ -1447,190 +1457,290 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>北美洲</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>美国</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>393505</v>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
         <v>432438</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>24125</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>14808</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>欧洲</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>西班牙</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>西班牙</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>89187</v>
       </c>
-      <c r="C3" t="n">
+      <c r="E3" t="n">
         <v>152446</v>
       </c>
-      <c r="D3" t="n">
+      <c r="F3" t="n">
         <v>48021</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>15238</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>欧洲</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>意大利</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>意大利</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>95727</v>
       </c>
-      <c r="C4" t="n">
+      <c r="E4" t="n">
         <v>139887</v>
       </c>
-      <c r="D4" t="n">
+      <c r="F4" t="n">
         <v>26491</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>17669</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>欧洲</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>德国</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>德国</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>56169</v>
       </c>
-      <c r="C5" t="n">
+      <c r="E5" t="n">
         <v>108202</v>
       </c>
-      <c r="D5" t="n">
+      <c r="F5" t="n">
         <v>49926</v>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
         <v>2107</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>亚洲</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>中国</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中国</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>2175</v>
       </c>
-      <c r="C6" t="n">
+      <c r="E6" t="n">
         <v>83264</v>
       </c>
-      <c r="D6" t="n">
+      <c r="F6" t="n">
         <v>77745</v>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
         <v>3344</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>欧洲</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>法国</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>法国</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>50466</v>
       </c>
-      <c r="C7" t="n">
+      <c r="E7" t="n">
         <v>82048</v>
       </c>
-      <c r="D7" t="n">
+      <c r="F7" t="n">
         <v>21254</v>
       </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
         <v>10328</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>亚洲</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>伊朗</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>伊朗</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>30867</v>
       </c>
-      <c r="C8" t="n">
+      <c r="E8" t="n">
         <v>67286</v>
       </c>
-      <c r="D8" t="n">
+      <c r="F8" t="n">
         <v>32309</v>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
         <v>4110</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>欧洲</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>英国</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>英国</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>53501</v>
       </c>
-      <c r="C9" t="n">
+      <c r="E9" t="n">
         <v>60733</v>
       </c>
-      <c r="D9" t="n">
+      <c r="F9" t="n">
         <v>135</v>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
         <v>7097</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>亚洲</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>土耳其</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>土耳其</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>35568</v>
       </c>
-      <c r="C10" t="n">
+      <c r="E10" t="n">
         <v>38226</v>
       </c>
-      <c r="D10" t="n">
+      <c r="F10" t="n">
         <v>1846</v>
       </c>
-      <c r="E10" t="n">
+      <c r="G10" t="n">
         <v>812</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>欧洲</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>比利时</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>比利时</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>18291</v>
       </c>
-      <c r="C11" t="n">
+      <c r="E11" t="n">
         <v>23403</v>
       </c>
-      <c r="D11" t="n">
+      <c r="F11" t="n">
         <v>2872</v>
       </c>
-      <c r="E11" t="n">
+      <c r="G11" t="n">
         <v>2240</v>
       </c>
     </row>
@@ -1671,7 +1781,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>现存确诊</t>
+          <t>当前确诊</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -1681,12 +1791,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>curedCount</t>
+          <t>治愈</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>deadCount</t>
+          <t>死亡</t>
         </is>
       </c>
     </row>
@@ -3003,7 +3113,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>现存确诊</t>
+          <t>当前确诊</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -3013,12 +3123,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>curedCount</t>
+          <t>治愈</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>deadCount</t>
+          <t>死亡</t>
         </is>
       </c>
     </row>
@@ -3117,7 +3227,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>现存确诊</t>
+          <t>当前确诊</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -3127,12 +3237,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>curedCount</t>
+          <t>治愈</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>deadCount</t>
+          <t>死亡</t>
         </is>
       </c>
     </row>
@@ -4362,7 +4472,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>现存确诊</t>
+          <t>当前确诊</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -4372,12 +4482,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>curedCount</t>
+          <t>治愈</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>deadCount</t>
+          <t>死亡</t>
         </is>
       </c>
     </row>
@@ -4853,7 +4963,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>现存确诊</t>
+          <t>当前确诊</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -4863,12 +4973,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>curedCount</t>
+          <t>治愈</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>deadCount</t>
+          <t>死亡</t>
         </is>
       </c>
     </row>
@@ -5141,7 +5251,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>现存确诊</t>
+          <t>当前确诊</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -5151,12 +5261,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>curedCount</t>
+          <t>治愈</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>deadCount</t>
+          <t>死亡</t>
         </is>
       </c>
     </row>
@@ -6734,7 +6844,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>现存确诊</t>
+          <t>当前确诊</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -6744,12 +6854,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>curedCount</t>
+          <t>治愈</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>deadCount</t>
+          <t>死亡</t>
         </is>
       </c>
     </row>
@@ -8380,17 +8490,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>curedCount</t>
+          <t>治愈</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>现存确诊</t>
+          <t>当前确诊</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>deadCount</t>
+          <t>死亡</t>
         </is>
       </c>
     </row>

--- a/excel_files/report_fixed.xlsx
+++ b/excel_files/report_fixed.xlsx
@@ -429,16 +429,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>401</v>
+        <v>69</v>
       </c>
       <c r="E2" t="n">
-        <v>67803</v>
+        <v>68128</v>
       </c>
       <c r="F2" t="n">
-        <v>64187</v>
+        <v>63547</v>
       </c>
       <c r="G2" t="n">
-        <v>3215</v>
+        <v>4512</v>
       </c>
     </row>
     <row r="3">
@@ -458,13 +458,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="E3" t="n">
-        <v>1539</v>
+        <v>1584</v>
       </c>
       <c r="F3" t="n">
-        <v>1423</v>
+        <v>1518</v>
       </c>
       <c r="G3" t="n">
         <v>8</v>
@@ -487,13 +487,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>1276</v>
       </c>
       <c r="F4" t="n">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="G4" t="n">
         <v>22</v>
@@ -516,13 +516,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="F5" t="n">
-        <v>1235</v>
+        <v>1254</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -541,17 +541,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>湖南省</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>332</v>
       </c>
       <c r="E6" t="n">
-        <v>1019</v>
+        <v>1035</v>
       </c>
       <c r="F6" t="n">
-        <v>1014</v>
+        <v>699</v>
       </c>
       <c r="G6" t="n">
         <v>4</v>
@@ -570,20 +570,20 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>安徽省</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>991</v>
+        <v>1019</v>
       </c>
       <c r="F7" t="n">
-        <v>984</v>
+        <v>1015</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -599,20 +599,20 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>676</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>973</v>
+        <v>991</v>
       </c>
       <c r="F8" t="n">
-        <v>293</v>
+        <v>984</v>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>937</v>
       </c>
       <c r="F9" t="n">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -657,20 +657,20 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>山东省</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>20</v>
+        <v>425</v>
       </c>
       <c r="E10" t="n">
-        <v>783</v>
+        <v>925</v>
       </c>
       <c r="F10" t="n">
-        <v>756</v>
+        <v>487</v>
       </c>
       <c r="G10" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
@@ -686,20 +686,20 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>江苏省</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>651</v>
+        <v>787</v>
       </c>
       <c r="F11" t="n">
-        <v>633</v>
+        <v>766</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -715,20 +715,20 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>黑龙江省</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>126</v>
+        <v>8</v>
       </c>
       <c r="E12" t="n">
-        <v>609</v>
+        <v>653</v>
       </c>
       <c r="F12" t="n">
-        <v>470</v>
+        <v>645</v>
       </c>
       <c r="G12" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -744,20 +744,20 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>北京市</t>
+          <t>上海市</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="E13" t="n">
-        <v>588</v>
+        <v>640</v>
       </c>
       <c r="F13" t="n">
-        <v>464</v>
+        <v>533</v>
       </c>
       <c r="G13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -773,20 +773,20 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>重庆市</t>
+          <t>北京市</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="E14" t="n">
-        <v>579</v>
+        <v>593</v>
       </c>
       <c r="F14" t="n">
-        <v>570</v>
+        <v>522</v>
       </c>
       <c r="G14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -802,20 +802,20 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>四川省</t>
+          <t>重庆市</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>560</v>
+        <v>579</v>
       </c>
       <c r="F15" t="n">
-        <v>541</v>
+        <v>570</v>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -831,20 +831,20 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>上海市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="F16" t="n">
-        <v>422</v>
+        <v>557</v>
       </c>
       <c r="G16" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -864,16 +864,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>308</v>
+        <v>168</v>
       </c>
       <c r="E17" t="n">
-        <v>380</v>
+        <v>427</v>
       </c>
       <c r="F17" t="n">
-        <v>67</v>
+        <v>253</v>
       </c>
       <c r="G17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="E18" t="n">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="F18" t="n">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -922,13 +922,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E19" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F19" t="n">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="G19" t="n">
         <v>6</v>
@@ -951,13 +951,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E20" t="n">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="F20" t="n">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="G20" t="n">
         <v>3</v>
@@ -1005,20 +1005,20 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>云南省</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="E22" t="n">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="F22" t="n">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1034,20 +1034,20 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>天津市</t>
+          <t>内蒙古自治区</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="E23" t="n">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="F23" t="n">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1063,20 +1063,20 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>海南省</t>
+          <t>天津市</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E24" t="n">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="F24" t="n">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="G24" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -1092,20 +1092,20 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>山西省</t>
+          <t>云南省</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="E25" t="n">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="F25" t="n">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1121,20 +1121,20 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>贵州省</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="F26" t="n">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -1150,17 +1150,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>辽宁省</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F27" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="G27" t="n">
         <v>2</v>
@@ -1179,17 +1179,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>甘肃省</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F28" t="n">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="G28" t="n">
         <v>2</v>
@@ -1208,20 +1208,20 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>内蒙古自治区</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="F29" t="n">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -1241,13 +1241,13 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E30" t="n">
+        <v>107</v>
+      </c>
+      <c r="F30" t="n">
         <v>98</v>
-      </c>
-      <c r="F30" t="n">
-        <v>93</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1328,13 +1328,13 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E33" t="n">
         <v>45</v>
       </c>
       <c r="F33" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1471,16 +1471,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>393505</v>
+        <v>719225</v>
       </c>
       <c r="E2" t="n">
-        <v>432438</v>
+        <v>842624</v>
       </c>
       <c r="F2" t="n">
-        <v>24125</v>
+        <v>76614</v>
       </c>
       <c r="G2" t="n">
-        <v>14808</v>
+        <v>46785</v>
       </c>
     </row>
     <row r="3">
@@ -1500,16 +1500,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>89187</v>
+        <v>101617</v>
       </c>
       <c r="E3" t="n">
-        <v>152446</v>
+        <v>213024</v>
       </c>
       <c r="F3" t="n">
-        <v>48021</v>
+        <v>89250</v>
       </c>
       <c r="G3" t="n">
-        <v>15238</v>
+        <v>22157</v>
       </c>
     </row>
     <row r="4">
@@ -1529,16 +1529,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>95727</v>
+        <v>107699</v>
       </c>
       <c r="E4" t="n">
-        <v>139887</v>
+        <v>187327</v>
       </c>
       <c r="F4" t="n">
-        <v>26491</v>
+        <v>54543</v>
       </c>
       <c r="G4" t="n">
-        <v>17669</v>
+        <v>25085</v>
       </c>
     </row>
     <row r="5">
@@ -1558,45 +1558,45 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>56169</v>
+        <v>39652</v>
       </c>
       <c r="E5" t="n">
-        <v>108202</v>
+        <v>148046</v>
       </c>
       <c r="F5" t="n">
-        <v>49926</v>
+        <v>103300</v>
       </c>
       <c r="G5" t="n">
-        <v>2107</v>
+        <v>5094</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>欧洲</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>中国</t>
+          <t>英国</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中国</t>
+          <t>英国</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2175</v>
+        <v>115051</v>
       </c>
       <c r="E6" t="n">
-        <v>83264</v>
+        <v>133495</v>
       </c>
       <c r="F6" t="n">
-        <v>77745</v>
+        <v>344</v>
       </c>
       <c r="G6" t="n">
-        <v>3344</v>
+        <v>18100</v>
       </c>
     </row>
     <row r="7">
@@ -1616,16 +1616,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>50466</v>
+        <v>57154</v>
       </c>
       <c r="E7" t="n">
-        <v>82048</v>
+        <v>119151</v>
       </c>
       <c r="F7" t="n">
-        <v>21254</v>
+        <v>40657</v>
       </c>
       <c r="G7" t="n">
-        <v>10328</v>
+        <v>21340</v>
       </c>
     </row>
     <row r="8">
@@ -1636,54 +1636,54 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>伊朗</t>
+          <t>土耳其</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>伊朗</t>
+          <t>土耳其</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>30867</v>
+        <v>79821</v>
       </c>
       <c r="E8" t="n">
-        <v>67286</v>
+        <v>98674</v>
       </c>
       <c r="F8" t="n">
-        <v>32309</v>
+        <v>16477</v>
       </c>
       <c r="G8" t="n">
-        <v>4110</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>亚洲</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>英国</t>
+          <t>伊朗</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>英国</t>
+          <t>伊朗</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>53501</v>
+        <v>16702</v>
       </c>
       <c r="E9" t="n">
-        <v>60733</v>
+        <v>87026</v>
       </c>
       <c r="F9" t="n">
-        <v>135</v>
+        <v>64843</v>
       </c>
       <c r="G9" t="n">
-        <v>7097</v>
+        <v>5481</v>
       </c>
     </row>
     <row r="10">
@@ -1694,25 +1694,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>土耳其</t>
+          <t>中国</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>土耳其</t>
+          <t>中国</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>35568</v>
+        <v>1474</v>
       </c>
       <c r="E10" t="n">
-        <v>38226</v>
+        <v>84305</v>
       </c>
       <c r="F10" t="n">
-        <v>1846</v>
+        <v>78189</v>
       </c>
       <c r="G10" t="n">
-        <v>812</v>
+        <v>4642</v>
       </c>
     </row>
     <row r="11">
@@ -1723,25 +1723,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>比利时</t>
+          <t>俄罗斯</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>比利时</t>
+          <t>俄罗斯</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>18291</v>
+        <v>57327</v>
       </c>
       <c r="E11" t="n">
-        <v>23403</v>
+        <v>62773</v>
       </c>
       <c r="F11" t="n">
-        <v>2872</v>
+        <v>4891</v>
       </c>
       <c r="G11" t="n">
-        <v>2240</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -1755,7 +1755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1808,25 +1808,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>中国</t>
+          <t>土耳其</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中国</t>
+          <t>土耳其</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2175</v>
+        <v>79821</v>
       </c>
       <c r="E2" t="n">
-        <v>83264</v>
+        <v>98674</v>
       </c>
       <c r="F2" t="n">
-        <v>77745</v>
+        <v>16477</v>
       </c>
       <c r="G2" t="n">
-        <v>3344</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="3">
@@ -1846,16 +1846,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>30867</v>
+        <v>16702</v>
       </c>
       <c r="E3" t="n">
-        <v>67286</v>
+        <v>87026</v>
       </c>
       <c r="F3" t="n">
-        <v>32309</v>
+        <v>64843</v>
       </c>
       <c r="G3" t="n">
-        <v>4110</v>
+        <v>5481</v>
       </c>
     </row>
     <row r="4">
@@ -1866,25 +1866,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>土耳其</t>
+          <t>中国</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>土耳其</t>
+          <t>中国</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>35568</v>
+        <v>1474</v>
       </c>
       <c r="E4" t="n">
-        <v>38226</v>
+        <v>84305</v>
       </c>
       <c r="F4" t="n">
-        <v>1846</v>
+        <v>78189</v>
       </c>
       <c r="G4" t="n">
-        <v>812</v>
+        <v>4642</v>
       </c>
     </row>
     <row r="5">
@@ -1895,25 +1895,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>韩国</t>
+          <t>印度</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>韩国</t>
+          <t>印度</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3246</v>
+        <v>16454</v>
       </c>
       <c r="E5" t="n">
-        <v>10423</v>
+        <v>21393</v>
       </c>
       <c r="F5" t="n">
-        <v>6973</v>
+        <v>4258</v>
       </c>
       <c r="G5" t="n">
-        <v>204</v>
+        <v>681</v>
       </c>
     </row>
     <row r="6">
@@ -1933,16 +1933,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8906</v>
+        <v>9067</v>
       </c>
       <c r="E6" t="n">
-        <v>9755</v>
+        <v>14592</v>
       </c>
       <c r="F6" t="n">
-        <v>770</v>
+        <v>5334</v>
       </c>
       <c r="G6" t="n">
-        <v>79</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7">
@@ -1953,25 +1953,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>印度</t>
+          <t>沙特阿拉伯</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>印度</t>
+          <t>沙特阿拉伯</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5095</v>
+        <v>10851</v>
       </c>
       <c r="E7" t="n">
-        <v>5734</v>
+        <v>12772</v>
       </c>
       <c r="F7" t="n">
-        <v>473</v>
+        <v>1812</v>
       </c>
       <c r="G7" t="n">
-        <v>166</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8">
@@ -1991,16 +1991,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4451</v>
+        <v>10655</v>
       </c>
       <c r="E8" t="n">
-        <v>4953</v>
+        <v>12023</v>
       </c>
       <c r="F8" t="n">
-        <v>404</v>
+        <v>1069</v>
       </c>
       <c r="G8" t="n">
-        <v>98</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9">
@@ -2011,25 +2011,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>马来西亚</t>
+          <t>新加坡</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>马来西亚</t>
+          <t>新加坡</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2553</v>
+        <v>10483</v>
       </c>
       <c r="E9" t="n">
-        <v>4228</v>
+        <v>11178</v>
       </c>
       <c r="F9" t="n">
-        <v>1608</v>
+        <v>683</v>
       </c>
       <c r="G9" t="n">
-        <v>67</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -2040,25 +2040,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>菲律宾</t>
+          <t>韩国</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>菲律宾</t>
+          <t>韩国</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3749</v>
+        <v>2051</v>
       </c>
       <c r="E10" t="n">
-        <v>4076</v>
+        <v>10702</v>
       </c>
       <c r="F10" t="n">
-        <v>124</v>
+        <v>8411</v>
       </c>
       <c r="G10" t="n">
-        <v>203</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11">
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3547</v>
+        <v>7952</v>
       </c>
       <c r="E11" t="n">
-        <v>4072</v>
+        <v>10513</v>
       </c>
       <c r="F11" t="n">
-        <v>467</v>
+        <v>2337</v>
       </c>
       <c r="G11" t="n">
-        <v>58</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12">
@@ -2098,25 +2098,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>印度尼西亚</t>
+          <t>阿联酋</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>印度尼西亚</t>
+          <t>阿联酋</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2949</v>
+        <v>6640</v>
       </c>
       <c r="E12" t="n">
-        <v>3293</v>
+        <v>8238</v>
       </c>
       <c r="F12" t="n">
-        <v>64</v>
+        <v>1546</v>
       </c>
       <c r="G12" t="n">
-        <v>280</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13">
@@ -2127,25 +2127,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>沙特阿拉伯</t>
+          <t>印度尼西亚</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>沙特阿拉伯</t>
+          <t>印度尼西亚</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2260</v>
+        <v>6168</v>
       </c>
       <c r="E13" t="n">
-        <v>2932</v>
+        <v>7775</v>
       </c>
       <c r="F13" t="n">
-        <v>631</v>
+        <v>960</v>
       </c>
       <c r="G13" t="n">
-        <v>41</v>
+        <v>647</v>
       </c>
     </row>
     <row r="14">
@@ -2156,25 +2156,25 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>阿联酋</t>
+          <t>卡塔尔</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>阿联酋</t>
+          <t>卡塔尔</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2408</v>
+        <v>7004</v>
       </c>
       <c r="E14" t="n">
-        <v>2659</v>
+        <v>7764</v>
       </c>
       <c r="F14" t="n">
-        <v>239</v>
+        <v>750</v>
       </c>
       <c r="G14" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -2185,25 +2185,25 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>泰国</t>
+          <t>菲律宾</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>泰国</t>
+          <t>菲律宾</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1451</v>
+        <v>5797</v>
       </c>
       <c r="E15" t="n">
-        <v>2423</v>
+        <v>6981</v>
       </c>
       <c r="F15" t="n">
-        <v>940</v>
+        <v>722</v>
       </c>
       <c r="G15" t="n">
-        <v>32</v>
+        <v>462</v>
       </c>
     </row>
     <row r="16">
@@ -2214,25 +2214,25 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>卡塔尔</t>
+          <t>马来西亚</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>卡塔尔</t>
+          <t>马来西亚</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2026</v>
+        <v>1966</v>
       </c>
       <c r="E16" t="n">
-        <v>2210</v>
+        <v>5603</v>
       </c>
       <c r="F16" t="n">
-        <v>178</v>
+        <v>3542</v>
       </c>
       <c r="G16" t="n">
-        <v>6</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17">
@@ -2243,25 +2243,25 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>新加坡</t>
+          <t>孟加拉国</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>新加坡</t>
+          <t>孟加拉国</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1210</v>
+        <v>3187</v>
       </c>
       <c r="E17" t="n">
-        <v>1623</v>
+        <v>3382</v>
       </c>
       <c r="F17" t="n">
-        <v>406</v>
+        <v>85</v>
       </c>
       <c r="G17" t="n">
-        <v>7</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18">
@@ -2272,25 +2272,25 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>伊拉克</t>
+          <t>泰国</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>伊拉克</t>
+          <t>泰国</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>681</v>
+        <v>359</v>
       </c>
       <c r="E18" t="n">
-        <v>1202</v>
+        <v>2839</v>
       </c>
       <c r="F18" t="n">
-        <v>452</v>
+        <v>2430</v>
       </c>
       <c r="G18" t="n">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19">
@@ -2301,25 +2301,25 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>亚美尼亚</t>
+          <t>科威特</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>亚美尼亚</t>
+          <t>科威特</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>773</v>
+        <v>1887</v>
       </c>
       <c r="E19" t="n">
-        <v>921</v>
+        <v>2399</v>
       </c>
       <c r="F19" t="n">
-        <v>138</v>
+        <v>498</v>
       </c>
       <c r="G19" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
@@ -2330,25 +2330,25 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>科威特</t>
+          <t>哈萨克斯坦</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>科威特</t>
+          <t>哈萨克斯坦</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>742</v>
+        <v>1657</v>
       </c>
       <c r="E20" t="n">
-        <v>855</v>
+        <v>2191</v>
       </c>
       <c r="F20" t="n">
-        <v>112</v>
+        <v>515</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>阿塞拜疆</t>
+          <t>巴林</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>阿塞拜疆</t>
+          <t>巴林</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>751</v>
+        <v>976</v>
       </c>
       <c r="E21" t="n">
-        <v>822</v>
+        <v>2009</v>
       </c>
       <c r="F21" t="n">
-        <v>63</v>
+        <v>1026</v>
       </c>
       <c r="G21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -2388,25 +2388,25 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>巴林</t>
+          <t>阿曼</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>巴林</t>
+          <t>阿曼</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>349</v>
+        <v>1401</v>
       </c>
       <c r="E22" t="n">
-        <v>821</v>
+        <v>1716</v>
       </c>
       <c r="F22" t="n">
-        <v>467</v>
+        <v>307</v>
       </c>
       <c r="G22" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -2417,22 +2417,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>哈萨克斯坦</t>
+          <t>乌兹别克斯坦</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>哈萨克斯坦</t>
+          <t>乌兹别克斯坦</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>652</v>
+        <v>1426</v>
       </c>
       <c r="E23" t="n">
-        <v>709</v>
+        <v>1657</v>
       </c>
       <c r="F23" t="n">
-        <v>51</v>
+        <v>225</v>
       </c>
       <c r="G23" t="n">
         <v>6</v>
@@ -2446,25 +2446,25 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>黎巴嫩</t>
+          <t>伊拉克</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>黎巴嫩</t>
+          <t>伊拉克</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>494</v>
+        <v>402</v>
       </c>
       <c r="E24" t="n">
-        <v>575</v>
+        <v>1631</v>
       </c>
       <c r="F24" t="n">
-        <v>62</v>
+        <v>1146</v>
       </c>
       <c r="G24" t="n">
-        <v>19</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25">
@@ -2475,25 +2475,25 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>乌兹别克斯坦</t>
+          <t>阿塞拜疆</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>乌兹别克斯坦</t>
+          <t>阿塞拜疆</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>501</v>
+        <v>591</v>
       </c>
       <c r="E25" t="n">
-        <v>534</v>
+        <v>1518</v>
       </c>
       <c r="F25" t="n">
-        <v>30</v>
+        <v>907</v>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
@@ -2504,25 +2504,25 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>塞浦路斯</t>
+          <t>亚美尼亚</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>塞浦路斯</t>
+          <t>亚美尼亚</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>512</v>
+        <v>816</v>
       </c>
       <c r="E26" t="n">
-        <v>526</v>
+        <v>1473</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>633</v>
       </c>
       <c r="G26" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27">
@@ -2533,25 +2533,25 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>阿曼</t>
+          <t>阿富汗</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>阿曼</t>
+          <t>阿富汗</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>346</v>
+        <v>972</v>
       </c>
       <c r="E27" t="n">
-        <v>457</v>
+        <v>1143</v>
       </c>
       <c r="F27" t="n">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28">
@@ -2562,25 +2562,25 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>阿富汗</t>
+          <t>塞浦路斯</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>阿富汗</t>
+          <t>塞浦路斯</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>430</v>
+        <v>773</v>
       </c>
       <c r="E28" t="n">
-        <v>444</v>
+        <v>790</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29">
@@ -2591,25 +2591,25 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>约旦</t>
+          <t>黎巴嫩</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>约旦</t>
+          <t>黎巴嫩</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>202</v>
+        <v>552</v>
       </c>
       <c r="E29" t="n">
-        <v>358</v>
+        <v>682</v>
       </c>
       <c r="F29" t="n">
-        <v>150</v>
+        <v>108</v>
       </c>
       <c r="G29" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30">
@@ -2629,16 +2629,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>233</v>
+        <v>404</v>
       </c>
       <c r="E30" t="n">
-        <v>270</v>
+        <v>612</v>
       </c>
       <c r="F30" t="n">
-        <v>33</v>
+        <v>201</v>
       </c>
       <c r="G30" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -2658,16 +2658,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>241</v>
+        <v>361</v>
       </c>
       <c r="E31" t="n">
-        <v>263</v>
+        <v>441</v>
       </c>
       <c r="F31" t="n">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -2678,25 +2678,25 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>越南</t>
+          <t>约旦</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>越南</t>
+          <t>约旦</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E32" t="n">
-        <v>251</v>
+        <v>435</v>
       </c>
       <c r="F32" t="n">
-        <v>126</v>
+        <v>297</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -2716,16 +2716,16 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>159</v>
+        <v>308</v>
       </c>
       <c r="E33" t="n">
-        <v>208</v>
+        <v>420</v>
       </c>
       <c r="F33" t="n">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
@@ -2745,13 +2745,13 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>139</v>
+        <v>218</v>
       </c>
       <c r="E34" t="n">
-        <v>188</v>
+        <v>330</v>
       </c>
       <c r="F34" t="n">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="G34" t="n">
         <v>7</v>
@@ -2765,25 +2765,25 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>孟加拉国</t>
+          <t>越南</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>孟加拉国</t>
+          <t>越南</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="E35" t="n">
-        <v>164</v>
+        <v>268</v>
       </c>
       <c r="F35" t="n">
-        <v>33</v>
+        <v>169</v>
       </c>
       <c r="G35" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -2803,13 +2803,13 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="E36" t="n">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F36" t="n">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2823,25 +2823,25 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>柬埔寨</t>
+          <t>缅甸</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>柬埔寨</t>
+          <t>缅甸</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="E37" t="n">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="F37" t="n">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -2852,25 +2852,25 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>缅甸</t>
+          <t>柬埔寨</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>缅甸</t>
+          <t>柬埔寨</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="E38" t="n">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2881,25 +2881,25 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>叙利亚</t>
+          <t>马尔代夫</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>叙利亚</t>
+          <t>马尔代夫</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E39" t="n">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -2910,22 +2910,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>马尔代夫</t>
+          <t>尼泊尔</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>马尔代夫</t>
+          <t>尼泊尔</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="E40" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="F40" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -2939,25 +2939,25 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>蒙古</t>
+          <t>叙利亚</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>蒙古</t>
+          <t>叙利亚</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E41" t="n">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -2968,22 +2968,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>老挝</t>
+          <t>蒙古</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>老挝</t>
+          <t>蒙古</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E42" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>尼泊尔</t>
+          <t>东帝汶</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>尼泊尔</t>
+          <t>东帝汶</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E43" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3026,19 +3026,19 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>不丹</t>
+          <t>老挝</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>不丹</t>
+          <t>老挝</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E44" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3055,24 +3055,53 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>东帝汶</t>
+          <t>不丹</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>东帝汶</t>
+          <t>不丹</t>
         </is>
       </c>
       <c r="D45" t="n">
+        <v>6</v>
+      </c>
+      <c r="E45" t="n">
+        <v>6</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>亚洲</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>也门共和国</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>也门共和国</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
         <v>1</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E46" t="n">
         <v>1</v>
       </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3149,7 +3178,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E2" t="n">
         <v>712</v>
@@ -3158,7 +3187,7 @@
         <v>574</v>
       </c>
       <c r="G2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -3263,16 +3292,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>393505</v>
+        <v>719225</v>
       </c>
       <c r="E2" t="n">
-        <v>432438</v>
+        <v>842624</v>
       </c>
       <c r="F2" t="n">
-        <v>24125</v>
+        <v>76614</v>
       </c>
       <c r="G2" t="n">
-        <v>14808</v>
+        <v>46785</v>
       </c>
     </row>
     <row r="3">
@@ -3292,16 +3321,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>16074</v>
+        <v>24231</v>
       </c>
       <c r="E3" t="n">
-        <v>19279</v>
+        <v>40191</v>
       </c>
       <c r="F3" t="n">
-        <v>2770</v>
+        <v>13986</v>
       </c>
       <c r="G3" t="n">
-        <v>435</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="4">
@@ -3321,16 +3350,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3006</v>
+        <v>9573</v>
       </c>
       <c r="E4" t="n">
-        <v>3181</v>
+        <v>10544</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>174</v>
+        <v>970</v>
       </c>
     </row>
     <row r="5">
@@ -3341,25 +3370,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>巴拿马</t>
+          <t>多米尼加</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>巴拿马</t>
+          <t>多米尼加</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2041</v>
+        <v>4799</v>
       </c>
       <c r="E5" t="n">
-        <v>2100</v>
+        <v>5044</v>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>55</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6">
@@ -3370,25 +3399,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>多米尼加</t>
+          <t>巴拿马</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>多米尼加</t>
+          <t>巴拿马</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1858</v>
+        <v>4518</v>
       </c>
       <c r="E6" t="n">
-        <v>1956</v>
+        <v>4658</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>98</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7">
@@ -3408,16 +3437,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>550</v>
+        <v>1234</v>
       </c>
       <c r="E7" t="n">
-        <v>573</v>
+        <v>1298</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>23</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8">
@@ -3428,25 +3457,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>哥斯达黎加</t>
+          <t>古巴</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>哥斯达黎加</t>
+          <t>古巴</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>465</v>
+        <v>1099</v>
       </c>
       <c r="E8" t="n">
-        <v>467</v>
+        <v>1137</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
@@ -3457,25 +3486,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>古巴</t>
+          <t>哥斯达黎加</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>古巴</t>
+          <t>哥斯达黎加</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>385</v>
+        <v>656</v>
       </c>
       <c r="E9" t="n">
-        <v>396</v>
+        <v>662</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -3495,16 +3524,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>320</v>
+        <v>448</v>
       </c>
       <c r="E10" t="n">
-        <v>343</v>
+        <v>494</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
@@ -3515,25 +3544,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>马提尼克</t>
+          <t>危地马拉</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>马提尼克</t>
+          <t>危地马拉</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>147</v>
+        <v>285</v>
       </c>
       <c r="E11" t="n">
-        <v>151</v>
+        <v>294</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -3544,19 +3573,19 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>瓜德罗普岛</t>
+          <t>萨尔瓦多</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>瓜德罗普岛</t>
+          <t>萨尔瓦多</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>132</v>
+        <v>218</v>
       </c>
       <c r="E12" t="n">
-        <v>139</v>
+        <v>225</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -3573,25 +3602,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>特立尼达和多巴哥</t>
+          <t>牙买加</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>特立尼达和多巴哥</t>
+          <t>牙买加</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>98</v>
+        <v>217</v>
       </c>
       <c r="E13" t="n">
-        <v>106</v>
+        <v>223</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -3602,25 +3631,25 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>萨尔瓦多</t>
+          <t>马提尼克</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>萨尔瓦多</t>
+          <t>马提尼克</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="E14" t="n">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
@@ -3631,25 +3660,25 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>危地马拉</t>
+          <t>瓜德罗普岛</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>危地马拉</t>
+          <t>瓜德罗普岛</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="E15" t="n">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -3660,25 +3689,25 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>阿鲁巴</t>
+          <t>特立尼达和多巴哥</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>阿鲁巴</t>
+          <t>特立尼达和多巴哥</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="E16" t="n">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -3689,19 +3718,19 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>巴巴多斯</t>
+          <t>阿鲁巴</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>巴巴多斯</t>
+          <t>阿鲁巴</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="E17" t="n">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -3718,25 +3747,25 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>牙买加</t>
+          <t>百慕大</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>牙买加</t>
+          <t>百慕大</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="E18" t="n">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -3747,25 +3776,25 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>美属维尔京群岛</t>
+          <t>巴巴多斯</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>美属维尔京群岛</t>
+          <t>巴巴多斯</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="E19" t="n">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -3785,16 +3814,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="E20" t="n">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -3805,19 +3834,19 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>百慕大</t>
+          <t>开曼群岛</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>百慕大</t>
+          <t>开曼群岛</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="E21" t="n">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -3834,25 +3863,25 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>开曼群岛</t>
+          <t>巴哈马</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>开曼群岛</t>
+          <t>巴哈马</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E22" t="n">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -3863,25 +3892,25 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>巴哈马</t>
+          <t>海地</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>巴哈马</t>
+          <t>海地</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E23" t="n">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -3892,25 +3921,25 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>圣马丁岛</t>
+          <t>美属维尔京群岛</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>圣马丁岛</t>
+          <t>美属维尔京群岛</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E24" t="n">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -3921,25 +3950,25 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>海地</t>
+          <t>圣马丁岛</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>海地</t>
+          <t>圣马丁岛</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E25" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -3959,16 +3988,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -3979,25 +4008,25 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>多米尼克</t>
+          <t>伯利兹</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>多米尼克</t>
+          <t>伯利兹</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E27" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -4008,19 +4037,19 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>圣卢西亚</t>
+          <t>多米尼克</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>圣卢西亚</t>
+          <t>多米尼克</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E28" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -4037,25 +4066,25 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>库拉索岛</t>
+          <t>圣其茨和尼维斯</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>库拉索岛</t>
+          <t>圣其茨和尼维斯</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -4066,19 +4095,19 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>格林那达</t>
+          <t>圣卢西亚</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>格林那达</t>
+          <t>圣卢西亚</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E30" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -4095,19 +4124,19 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>格陵兰</t>
+          <t>格林那达</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>格陵兰</t>
+          <t>格林那达</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E31" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -4124,25 +4153,25 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>圣其茨和尼维斯</t>
+          <t>库拉索岛</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>圣其茨和尼维斯</t>
+          <t>库拉索岛</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E32" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -4153,25 +4182,25 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>特克斯和凯科斯群岛</t>
+          <t>圣文森特和格林纳丁斯</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>特克斯和凯科斯群岛</t>
+          <t>圣文森特和格林纳丁斯</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E33" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -4182,19 +4211,19 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>圣文森特和格林纳丁斯</t>
+          <t>蒙特塞拉特</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>圣文森特和格林纳丁斯</t>
+          <t>蒙特塞拉特</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E34" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -4211,25 +4240,25 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>伯利兹</t>
+          <t>格陵兰</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>伯利兹</t>
+          <t>格陵兰</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E35" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -4240,25 +4269,25 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>蒙特塞拉特</t>
+          <t>特克斯和凯科斯群岛</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>蒙特塞拉特</t>
+          <t>特克斯和凯科斯群岛</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E36" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -4269,25 +4298,25 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>圣巴泰勒米岛</t>
+          <t>尼加拉瓜</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>圣巴泰勒米岛</t>
+          <t>尼加拉瓜</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E37" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -4298,16 +4327,16 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>尼加拉瓜</t>
+          <t>圣巴泰勒米岛</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>尼加拉瓜</t>
+          <t>圣巴泰勒米岛</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E38" t="n">
         <v>6</v>
@@ -4316,7 +4345,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -4327,25 +4356,25 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>圣巴泰勒米</t>
+          <t>英属维尔京群岛</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>圣巴泰勒米</t>
+          <t>英属维尔京群岛</t>
         </is>
       </c>
       <c r="D39" t="n">
         <v>3</v>
       </c>
       <c r="E39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -4356,12 +4385,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>英属维尔京群岛</t>
+          <t>安圭拉</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>英属维尔京群岛</t>
+          <t>安圭拉</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -4385,12 +4414,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>安圭拉</t>
+          <t>圣巴泰勒米</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>安圭拉</t>
+          <t>圣巴泰勒米</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -4508,16 +4537,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>15000</v>
+        <v>17533</v>
       </c>
       <c r="E2" t="n">
-        <v>15927</v>
+        <v>45757</v>
       </c>
       <c r="F2" t="n">
-        <v>127</v>
+        <v>25318</v>
       </c>
       <c r="G2" t="n">
-        <v>800</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="3">
@@ -4528,25 +4557,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>智利</t>
+          <t>秘鲁</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>智利</t>
+          <t>秘鲁</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4383</v>
+        <v>11693</v>
       </c>
       <c r="E3" t="n">
-        <v>5546</v>
+        <v>19250</v>
       </c>
       <c r="F3" t="n">
-        <v>1115</v>
+        <v>7027</v>
       </c>
       <c r="G3" t="n">
-        <v>48</v>
+        <v>530</v>
       </c>
     </row>
     <row r="4">
@@ -4557,25 +4586,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>厄瓜多尔</t>
+          <t>智利</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>厄瓜多尔</t>
+          <t>智利</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4068</v>
+        <v>5750</v>
       </c>
       <c r="E4" t="n">
-        <v>4450</v>
+        <v>11296</v>
       </c>
       <c r="F4" t="n">
-        <v>140</v>
+        <v>5386</v>
       </c>
       <c r="G4" t="n">
-        <v>242</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5">
@@ -4586,25 +4615,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>秘鲁</t>
+          <t>厄瓜多尔</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>秘鲁</t>
+          <t>厄瓜多尔</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2980</v>
+        <v>9377</v>
       </c>
       <c r="E5" t="n">
-        <v>4332</v>
+        <v>10398</v>
       </c>
       <c r="F5" t="n">
-        <v>1231</v>
+        <v>501</v>
       </c>
       <c r="G5" t="n">
-        <v>121</v>
+        <v>520</v>
       </c>
     </row>
     <row r="6">
@@ -4624,16 +4653,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1915</v>
+        <v>4065</v>
       </c>
       <c r="E6" t="n">
-        <v>2054</v>
+        <v>4356</v>
       </c>
       <c r="F6" t="n">
         <v>85</v>
       </c>
       <c r="G6" t="n">
-        <v>54</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7">
@@ -4653,16 +4682,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1372</v>
+        <v>2392</v>
       </c>
       <c r="E7" t="n">
-        <v>1795</v>
+        <v>3288</v>
       </c>
       <c r="F7" t="n">
-        <v>358</v>
+        <v>737</v>
       </c>
       <c r="G7" t="n">
-        <v>65</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8">
@@ -4673,25 +4702,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>乌拉圭</t>
+          <t>玻利维亚</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>乌拉圭</t>
+          <t>玻利维亚</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>257</v>
+        <v>564</v>
       </c>
       <c r="E8" t="n">
-        <v>456</v>
+        <v>598</v>
       </c>
       <c r="F8" t="n">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
@@ -4702,25 +4731,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>玻利维亚</t>
+          <t>乌拉圭</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>玻利维亚</t>
+          <t>乌拉圭</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="E9" t="n">
-        <v>194</v>
+        <v>549</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="G9" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -4740,16 +4769,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>158</v>
+        <v>275</v>
       </c>
       <c r="E10" t="n">
-        <v>165</v>
+        <v>285</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -4769,16 +4798,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="E11" t="n">
-        <v>115</v>
+        <v>208</v>
       </c>
       <c r="F11" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -4798,16 +4827,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="E12" t="n">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -4827,16 +4856,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="E13" t="n">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -4847,25 +4876,25 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>苏里南</t>
+          <t>福克兰群岛</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>苏里南</t>
+          <t>福克兰群岛</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -4876,25 +4905,25 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>荷兰加勒比地区</t>
+          <t>苏里南</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>荷兰加勒比地区</t>
+          <t>苏里南</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -4905,19 +4934,19 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>福克兰群岛</t>
+          <t>荷兰加勒比地区</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>福克兰群岛</t>
+          <t>荷兰加勒比地区</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -4999,16 +5028,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5883</v>
+        <v>2282</v>
       </c>
       <c r="E2" t="n">
-        <v>6052</v>
+        <v>6647</v>
       </c>
       <c r="F2" t="n">
-        <v>119</v>
+        <v>4291</v>
       </c>
       <c r="G2" t="n">
-        <v>50</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
@@ -5028,16 +5057,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>674</v>
+        <v>31</v>
       </c>
       <c r="E3" t="n">
-        <v>992</v>
+        <v>1112</v>
       </c>
       <c r="F3" t="n">
-        <v>317</v>
+        <v>1065</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -5057,16 +5086,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="E4" t="n">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -5086,10 +5115,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E5" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -5106,12 +5135,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>新喀里多尼亚</t>
+          <t>斐济</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>新喀里多尼亚</t>
+          <t>斐济</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -5135,19 +5164,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>斐济</t>
+          <t>新喀里多尼亚</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>斐济</t>
+          <t>新喀里多尼亚</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -5173,10 +5202,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -5202,10 +5231,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -5287,16 +5316,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>89187</v>
+        <v>101617</v>
       </c>
       <c r="E2" t="n">
-        <v>152446</v>
+        <v>213024</v>
       </c>
       <c r="F2" t="n">
-        <v>48021</v>
+        <v>89250</v>
       </c>
       <c r="G2" t="n">
-        <v>15238</v>
+        <v>22157</v>
       </c>
     </row>
     <row r="3">
@@ -5316,16 +5345,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>95727</v>
+        <v>107699</v>
       </c>
       <c r="E3" t="n">
-        <v>139887</v>
+        <v>187327</v>
       </c>
       <c r="F3" t="n">
-        <v>26491</v>
+        <v>54543</v>
       </c>
       <c r="G3" t="n">
-        <v>17669</v>
+        <v>25085</v>
       </c>
     </row>
     <row r="4">
@@ -5345,16 +5374,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>56169</v>
+        <v>39652</v>
       </c>
       <c r="E4" t="n">
-        <v>108202</v>
+        <v>148046</v>
       </c>
       <c r="F4" t="n">
-        <v>49926</v>
+        <v>103300</v>
       </c>
       <c r="G4" t="n">
-        <v>2107</v>
+        <v>5094</v>
       </c>
     </row>
     <row r="5">
@@ -5365,25 +5394,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>法国</t>
+          <t>英国</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>法国</t>
+          <t>英国</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>50466</v>
+        <v>115051</v>
       </c>
       <c r="E5" t="n">
-        <v>82048</v>
+        <v>133495</v>
       </c>
       <c r="F5" t="n">
-        <v>21254</v>
+        <v>344</v>
       </c>
       <c r="G5" t="n">
-        <v>10328</v>
+        <v>18100</v>
       </c>
     </row>
     <row r="6">
@@ -5394,25 +5423,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>英国</t>
+          <t>法国</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>英国</t>
+          <t>法国</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>53501</v>
+        <v>57154</v>
       </c>
       <c r="E6" t="n">
-        <v>60733</v>
+        <v>119151</v>
       </c>
       <c r="F6" t="n">
-        <v>135</v>
+        <v>40657</v>
       </c>
       <c r="G6" t="n">
-        <v>7097</v>
+        <v>21340</v>
       </c>
     </row>
     <row r="7">
@@ -5423,25 +5452,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>比利时</t>
+          <t>俄罗斯</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>比利时</t>
+          <t>俄罗斯</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>18291</v>
+        <v>57327</v>
       </c>
       <c r="E7" t="n">
-        <v>23403</v>
+        <v>62773</v>
       </c>
       <c r="F7" t="n">
-        <v>2872</v>
+        <v>4891</v>
       </c>
       <c r="G7" t="n">
-        <v>2240</v>
+        <v>555</v>
       </c>
     </row>
     <row r="8">
@@ -5452,25 +5481,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>瑞士</t>
+          <t>比利时</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>瑞士</t>
+          <t>比利时</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>12585</v>
+        <v>26507</v>
       </c>
       <c r="E8" t="n">
-        <v>23280</v>
+        <v>42797</v>
       </c>
       <c r="F8" t="n">
         <v>9800</v>
       </c>
       <c r="G8" t="n">
-        <v>895</v>
+        <v>6490</v>
       </c>
     </row>
     <row r="9">
@@ -5490,16 +5519,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>15347</v>
+        <v>30497</v>
       </c>
       <c r="E9" t="n">
-        <v>20549</v>
+        <v>34842</v>
       </c>
       <c r="F9" t="n">
-        <v>2954</v>
+        <v>291</v>
       </c>
       <c r="G9" t="n">
-        <v>2248</v>
+        <v>4054</v>
       </c>
     </row>
     <row r="10">
@@ -5510,25 +5539,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>葡萄牙</t>
+          <t>瑞士</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>葡萄牙</t>
+          <t>瑞士</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>12621</v>
+        <v>6772</v>
       </c>
       <c r="E10" t="n">
-        <v>13141</v>
+        <v>28197</v>
       </c>
       <c r="F10" t="n">
-        <v>140</v>
+        <v>19900</v>
       </c>
       <c r="G10" t="n">
-        <v>380</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="11">
@@ -5539,25 +5568,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>奥地利</t>
+          <t>葡萄牙</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>奥地利</t>
+          <t>葡萄牙</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>10102</v>
+        <v>20054</v>
       </c>
       <c r="E11" t="n">
-        <v>12852</v>
+        <v>21982</v>
       </c>
       <c r="F11" t="n">
-        <v>2507</v>
+        <v>1143</v>
       </c>
       <c r="G11" t="n">
-        <v>243</v>
+        <v>785</v>
       </c>
     </row>
     <row r="12">
@@ -5568,25 +5597,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>俄罗斯</t>
+          <t>爱尔兰</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>俄罗斯</t>
+          <t>爱尔兰</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>9357</v>
+        <v>6669</v>
       </c>
       <c r="E12" t="n">
-        <v>10131</v>
+        <v>16671</v>
       </c>
       <c r="F12" t="n">
-        <v>698</v>
+        <v>9233</v>
       </c>
       <c r="G12" t="n">
-        <v>76</v>
+        <v>769</v>
       </c>
     </row>
     <row r="13">
@@ -5606,16 +5635,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>7715</v>
+        <v>13689</v>
       </c>
       <c r="E13" t="n">
-        <v>8419</v>
+        <v>16147</v>
       </c>
       <c r="F13" t="n">
-        <v>17</v>
+        <v>516</v>
       </c>
       <c r="G13" t="n">
-        <v>687</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="14">
@@ -5626,25 +5655,25 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>爱尔兰</t>
+          <t>奥地利</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>爱尔兰</t>
+          <t>奥地利</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5839</v>
+        <v>3079</v>
       </c>
       <c r="E14" t="n">
-        <v>6074</v>
+        <v>14917</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>11328</v>
       </c>
       <c r="G14" t="n">
-        <v>235</v>
+        <v>510</v>
       </c>
     </row>
     <row r="15">
@@ -5655,25 +5684,25 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>挪威</t>
+          <t>波兰</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>挪威</t>
+          <t>波兰</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>5912</v>
+        <v>8230</v>
       </c>
       <c r="E15" t="n">
-        <v>6013</v>
+        <v>10169</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1513</v>
       </c>
       <c r="G15" t="n">
-        <v>101</v>
+        <v>426</v>
       </c>
     </row>
     <row r="16">
@@ -5684,25 +5713,25 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>丹麦</t>
+          <t>罗马尼亚</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>丹麦</t>
+          <t>罗马尼亚</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4290</v>
+        <v>6796</v>
       </c>
       <c r="E16" t="n">
-        <v>5402</v>
+        <v>9710</v>
       </c>
       <c r="F16" t="n">
-        <v>894</v>
+        <v>2406</v>
       </c>
       <c r="G16" t="n">
-        <v>218</v>
+        <v>508</v>
       </c>
     </row>
     <row r="17">
@@ -5713,25 +5742,25 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>捷克</t>
+          <t>丹麦</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>捷克</t>
+          <t>丹麦</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4889</v>
+        <v>4780</v>
       </c>
       <c r="E17" t="n">
-        <v>5221</v>
+        <v>7912</v>
       </c>
       <c r="F17" t="n">
-        <v>233</v>
+        <v>2748</v>
       </c>
       <c r="G17" t="n">
-        <v>99</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18">
@@ -5742,25 +5771,25 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>波兰</t>
+          <t>塞尔维亚</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>波兰</t>
+          <t>塞尔维亚</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>4824</v>
+        <v>6413</v>
       </c>
       <c r="E18" t="n">
-        <v>5205</v>
+        <v>7718</v>
       </c>
       <c r="F18" t="n">
-        <v>222</v>
+        <v>1153</v>
       </c>
       <c r="G18" t="n">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19">
@@ -5771,25 +5800,25 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>罗马尼亚</t>
+          <t>挪威</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>罗马尼亚</t>
+          <t>挪威</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>4024</v>
+        <v>7088</v>
       </c>
       <c r="E19" t="n">
-        <v>4761</v>
+        <v>7275</v>
       </c>
       <c r="F19" t="n">
-        <v>528</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>209</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20">
@@ -5800,25 +5829,25 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>卢森堡</t>
+          <t>乌克兰</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>卢森堡</t>
+          <t>乌克兰</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2747</v>
+        <v>6479</v>
       </c>
       <c r="E20" t="n">
-        <v>3034</v>
+        <v>7170</v>
       </c>
       <c r="F20" t="n">
-        <v>241</v>
+        <v>504</v>
       </c>
       <c r="G20" t="n">
-        <v>46</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5858,25 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>塞尔维亚</t>
+          <t>捷克</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>塞尔维亚</t>
+          <t>捷克</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2600</v>
+        <v>4890</v>
       </c>
       <c r="E21" t="n">
-        <v>2666</v>
+        <v>7087</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1989</v>
       </c>
       <c r="G21" t="n">
-        <v>66</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22">
@@ -5858,25 +5887,25 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>芬兰</t>
+          <t>白俄罗斯</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>芬兰</t>
+          <t>白俄罗斯</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2437</v>
+        <v>6091</v>
       </c>
       <c r="E22" t="n">
-        <v>2487</v>
+        <v>6723</v>
       </c>
       <c r="F22" t="n">
-        <v>10</v>
+        <v>577</v>
       </c>
       <c r="G22" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23">
@@ -5887,25 +5916,25 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>希腊</t>
+          <t>芬兰</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>希腊</t>
+          <t>芬兰</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1782</v>
+        <v>3970</v>
       </c>
       <c r="E23" t="n">
-        <v>1884</v>
+        <v>4129</v>
       </c>
       <c r="F23" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G23" t="n">
-        <v>83</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24">
@@ -5916,25 +5945,25 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>乌克兰</t>
+          <t>卢森堡</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>乌克兰</t>
+          <t>卢森堡</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1581</v>
+        <v>3333</v>
       </c>
       <c r="E24" t="n">
-        <v>1668</v>
+        <v>3654</v>
       </c>
       <c r="F24" t="n">
-        <v>35</v>
+        <v>241</v>
       </c>
       <c r="G24" t="n">
-        <v>52</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25">
@@ -5945,25 +5974,25 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>冰岛</t>
+          <t>摩尔多瓦</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>冰岛</t>
+          <t>摩尔多瓦</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1120</v>
+        <v>2063</v>
       </c>
       <c r="E25" t="n">
-        <v>1586</v>
+        <v>2641</v>
       </c>
       <c r="F25" t="n">
-        <v>460</v>
+        <v>505</v>
       </c>
       <c r="G25" t="n">
-        <v>6</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26">
@@ -5974,25 +6003,25 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>克罗地亚</t>
+          <t>希腊</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>克罗地亚</t>
+          <t>希腊</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1194</v>
+        <v>2261</v>
       </c>
       <c r="E26" t="n">
-        <v>1343</v>
+        <v>2401</v>
       </c>
       <c r="F26" t="n">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="G26" t="n">
-        <v>19</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27">
@@ -6003,25 +6032,25 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>爱沙尼亚</t>
+          <t>匈牙利</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>爱沙尼亚</t>
+          <t>匈牙利</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1089</v>
+        <v>1648</v>
       </c>
       <c r="E27" t="n">
-        <v>1185</v>
+        <v>2168</v>
       </c>
       <c r="F27" t="n">
-        <v>72</v>
+        <v>295</v>
       </c>
       <c r="G27" t="n">
-        <v>24</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28">
@@ -6032,25 +6061,25 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>摩尔多瓦</t>
+          <t>克罗地亚</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>摩尔多瓦</t>
+          <t>克罗地亚</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1122</v>
+        <v>1033</v>
       </c>
       <c r="E28" t="n">
-        <v>1174</v>
+        <v>1950</v>
       </c>
       <c r="F28" t="n">
-        <v>30</v>
+        <v>869</v>
       </c>
       <c r="G28" t="n">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29">
@@ -6061,25 +6090,25 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>斯洛文尼亚</t>
+          <t>冰岛</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>斯洛文尼亚</t>
+          <t>冰岛</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1051</v>
+        <v>313</v>
       </c>
       <c r="E29" t="n">
-        <v>1091</v>
+        <v>1785</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1462</v>
       </c>
       <c r="G29" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -6090,25 +6119,25 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>白俄罗斯</t>
+          <t>爱沙尼亚</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>白俄罗斯</t>
+          <t>爱沙尼亚</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>976</v>
+        <v>1331</v>
       </c>
       <c r="E30" t="n">
-        <v>1066</v>
+        <v>1559</v>
       </c>
       <c r="F30" t="n">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="G30" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31">
@@ -6128,16 +6157,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>896</v>
+        <v>975</v>
       </c>
       <c r="E31" t="n">
-        <v>912</v>
+        <v>1370</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>357</v>
       </c>
       <c r="G31" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32">
@@ -6148,25 +6177,25 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>匈牙利</t>
+          <t>斯洛文尼亚</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>匈牙利</t>
+          <t>斯洛文尼亚</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>743</v>
+        <v>1077</v>
       </c>
       <c r="E32" t="n">
-        <v>895</v>
+        <v>1353</v>
       </c>
       <c r="F32" t="n">
-        <v>94</v>
+        <v>197</v>
       </c>
       <c r="G32" t="n">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33">
@@ -6186,16 +6215,16 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>691</v>
+        <v>836</v>
       </c>
       <c r="E33" t="n">
-        <v>804</v>
+        <v>1350</v>
       </c>
       <c r="F33" t="n">
-        <v>79</v>
+        <v>460</v>
       </c>
       <c r="G33" t="n">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34">
@@ -6206,25 +6235,25 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>斯洛伐克</t>
+          <t>北马其顿</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>斯洛伐克</t>
+          <t>北马其顿</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>667</v>
+        <v>931</v>
       </c>
       <c r="E34" t="n">
-        <v>682</v>
+        <v>1259</v>
       </c>
       <c r="F34" t="n">
-        <v>13</v>
+        <v>272</v>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35">
@@ -6235,25 +6264,25 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>北马其顿</t>
+          <t>斯洛伐克</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>北马其顿</t>
+          <t>斯洛伐克</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>552</v>
+        <v>946</v>
       </c>
       <c r="E35" t="n">
-        <v>617</v>
+        <v>1244</v>
       </c>
       <c r="F35" t="n">
-        <v>35</v>
+        <v>284</v>
       </c>
       <c r="G35" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36">
@@ -6273,16 +6302,16 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>567</v>
+        <v>879</v>
       </c>
       <c r="E36" t="n">
-        <v>593</v>
+        <v>1081</v>
       </c>
       <c r="F36" t="n">
-        <v>3</v>
+        <v>153</v>
       </c>
       <c r="G36" t="n">
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37">
@@ -6302,16 +6331,16 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>575</v>
+        <v>679</v>
       </c>
       <c r="E37" t="n">
-        <v>577</v>
+        <v>761</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38">
@@ -6331,16 +6360,16 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>489</v>
+        <v>377</v>
       </c>
       <c r="E38" t="n">
-        <v>564</v>
+        <v>723</v>
       </c>
       <c r="F38" t="n">
-        <v>52</v>
+        <v>309</v>
       </c>
       <c r="G38" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39">
@@ -6360,16 +6389,16 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>247</v>
+        <v>309</v>
       </c>
       <c r="E39" t="n">
-        <v>400</v>
+        <v>663</v>
       </c>
       <c r="F39" t="n">
-        <v>131</v>
+        <v>327</v>
       </c>
       <c r="G39" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40">
@@ -6380,25 +6409,25 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>马耳他</t>
+          <t>圣马力诺</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>马耳他</t>
+          <t>圣马力诺</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>299</v>
+        <v>434</v>
       </c>
       <c r="E40" t="n">
-        <v>299</v>
+        <v>476</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41">
@@ -6409,25 +6438,25 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>圣马力诺</t>
+          <t>马耳他</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>圣马力诺</t>
+          <t>马耳他</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>243</v>
+        <v>396</v>
       </c>
       <c r="E41" t="n">
-        <v>279</v>
+        <v>443</v>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="G41" t="n">
-        <v>34</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -6447,16 +6476,16 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>247</v>
+        <v>194</v>
       </c>
       <c r="E42" t="n">
-        <v>249</v>
+        <v>315</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
@@ -6467,25 +6496,25 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>法罗群岛</t>
+          <t>马恩岛</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>法罗群岛</t>
+          <t>马恩岛</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>184</v>
+        <v>297</v>
       </c>
       <c r="E43" t="n">
-        <v>184</v>
+        <v>307</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
@@ -6505,16 +6534,16 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>167</v>
+        <v>236</v>
       </c>
       <c r="E44" t="n">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45">
@@ -6534,16 +6563,16 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>162</v>
+        <v>229</v>
       </c>
       <c r="E45" t="n">
-        <v>166</v>
+        <v>239</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46">
@@ -6554,25 +6583,25 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>马恩岛</t>
+          <t>法罗群岛</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>马恩岛</t>
+          <t>法罗群岛</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="E46" t="n">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -6592,10 +6621,10 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="E47" t="n">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
@@ -6621,16 +6650,16 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="E48" t="n">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="F48" t="n">
         <v>3</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -6650,10 +6679,10 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E49" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
@@ -6766,10 +6795,10 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E53" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
@@ -6871,25 +6900,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>南非</t>
+          <t>埃及</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南非</t>
+          <t>埃及</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1782</v>
+        <v>2448</v>
       </c>
       <c r="E2" t="n">
-        <v>1845</v>
+        <v>3659</v>
       </c>
       <c r="F2" t="n">
-        <v>45</v>
+        <v>935</v>
       </c>
       <c r="G2" t="n">
-        <v>18</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3">
@@ -6900,25 +6929,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>阿尔及利亚</t>
+          <t>南非</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>阿尔及利亚</t>
+          <t>南非</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1130</v>
+        <v>2515</v>
       </c>
       <c r="E3" t="n">
-        <v>1572</v>
+        <v>3635</v>
       </c>
       <c r="F3" t="n">
-        <v>237</v>
+        <v>1055</v>
       </c>
       <c r="G3" t="n">
-        <v>205</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -6929,25 +6958,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>埃及</t>
+          <t>摩洛哥</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>埃及</t>
+          <t>摩洛哥</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1152</v>
+        <v>2880</v>
       </c>
       <c r="E4" t="n">
-        <v>1560</v>
+        <v>3446</v>
       </c>
       <c r="F4" t="n">
-        <v>305</v>
+        <v>417</v>
       </c>
       <c r="G4" t="n">
-        <v>103</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5">
@@ -6958,25 +6987,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>摩洛哥</t>
+          <t>阿尔及利亚</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>摩洛哥</t>
+          <t>阿尔及利亚</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1085</v>
+        <v>1409</v>
       </c>
       <c r="E5" t="n">
-        <v>1275</v>
+        <v>2910</v>
       </c>
       <c r="F5" t="n">
-        <v>97</v>
+        <v>1099</v>
       </c>
       <c r="G5" t="n">
-        <v>93</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6">
@@ -6996,16 +7025,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>658</v>
+        <v>815</v>
       </c>
       <c r="E6" t="n">
-        <v>730</v>
+        <v>1163</v>
       </c>
       <c r="F6" t="n">
-        <v>62</v>
+        <v>305</v>
       </c>
       <c r="G6" t="n">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7">
@@ -7016,25 +7045,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>突尼斯</t>
+          <t>加纳</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>突尼斯</t>
+          <t>加纳</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>604</v>
+        <v>1025</v>
       </c>
       <c r="E7" t="n">
-        <v>628</v>
+        <v>1154</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G7" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -7045,25 +7074,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>布基纳法索</t>
+          <t>吉布提</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>布基纳法索</t>
+          <t>吉布提</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>257</v>
+        <v>789</v>
       </c>
       <c r="E8" t="n">
-        <v>414</v>
+        <v>974</v>
       </c>
       <c r="F8" t="n">
-        <v>134</v>
+        <v>183</v>
       </c>
       <c r="G8" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -7083,16 +7112,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>333</v>
+        <v>618</v>
       </c>
       <c r="E9" t="n">
-        <v>384</v>
+        <v>952</v>
       </c>
       <c r="F9" t="n">
-        <v>48</v>
+        <v>320</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -7103,25 +7132,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>留尼旺</t>
+          <t>突尼斯</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>留尼旺</t>
+          <t>突尼斯</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>358</v>
+        <v>681</v>
       </c>
       <c r="E10" t="n">
-        <v>358</v>
+        <v>909</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11">
@@ -7132,25 +7161,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>尼日尔</t>
+          <t>尼日利亚</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>尼日尔</t>
+          <t>尼日利亚</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>303</v>
+        <v>648</v>
       </c>
       <c r="E11" t="n">
-        <v>342</v>
+        <v>873</v>
       </c>
       <c r="F11" t="n">
+        <v>197</v>
+      </c>
+      <c r="G11" t="n">
         <v>28</v>
-      </c>
-      <c r="G11" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -7161,22 +7190,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>加纳</t>
+          <t>几内亚</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>加纳</t>
+          <t>几内亚</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>258</v>
+        <v>591</v>
       </c>
       <c r="E12" t="n">
-        <v>313</v>
+        <v>761</v>
       </c>
       <c r="F12" t="n">
-        <v>49</v>
+        <v>164</v>
       </c>
       <c r="G12" t="n">
         <v>6</v>
@@ -7190,25 +7219,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>尼日利亚</t>
+          <t>尼日尔</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>尼日利亚</t>
+          <t>尼日尔</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>226</v>
+        <v>447</v>
       </c>
       <c r="E13" t="n">
-        <v>276</v>
+        <v>662</v>
       </c>
       <c r="F13" t="n">
-        <v>44</v>
+        <v>193</v>
       </c>
       <c r="G13" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
@@ -7219,25 +7248,25 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>毛里求斯</t>
+          <t>布基纳法索</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>毛里求斯</t>
+          <t>布基纳法索</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>247</v>
+        <v>181</v>
       </c>
       <c r="E14" t="n">
-        <v>273</v>
+        <v>609</v>
       </c>
       <c r="F14" t="n">
-        <v>19</v>
+        <v>389</v>
       </c>
       <c r="G14" t="n">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15">
@@ -7257,16 +7286,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>129</v>
+        <v>216</v>
       </c>
       <c r="E15" t="n">
-        <v>244</v>
+        <v>479</v>
       </c>
       <c r="F15" t="n">
-        <v>113</v>
+        <v>257</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -7277,25 +7306,25 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>刚果（金）</t>
+          <t>留尼旺</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>刚果（金）</t>
+          <t>留尼旺</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>177</v>
+        <v>410</v>
       </c>
       <c r="E16" t="n">
-        <v>207</v>
+        <v>410</v>
       </c>
       <c r="F16" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -7306,25 +7335,25 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>马约特</t>
+          <t>刚果（金）</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>马约特</t>
+          <t>刚果（金）</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>182</v>
+        <v>305</v>
       </c>
       <c r="E17" t="n">
-        <v>184</v>
+        <v>377</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
@@ -7335,25 +7364,25 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>肯尼亚</t>
+          <t>毛里求斯</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>肯尼亚</t>
+          <t>毛里求斯</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>166</v>
+        <v>59</v>
       </c>
       <c r="E18" t="n">
-        <v>179</v>
+        <v>329</v>
       </c>
       <c r="F18" t="n">
-        <v>7</v>
+        <v>261</v>
       </c>
       <c r="G18" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -7364,25 +7393,25 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>几内亚</t>
+          <t>马约特</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>几内亚</t>
+          <t>马约特</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>159</v>
+        <v>307</v>
       </c>
       <c r="E19" t="n">
-        <v>164</v>
+        <v>311</v>
       </c>
       <c r="F19" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -7393,25 +7422,25 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>吉布提</t>
+          <t>肯尼亚</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>吉布提</t>
+          <t>肯尼亚</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>110</v>
+        <v>206</v>
       </c>
       <c r="E20" t="n">
-        <v>135</v>
+        <v>303</v>
       </c>
       <c r="F20" t="n">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
@@ -7422,25 +7451,25 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>卢旺达</t>
+          <t>索马里</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>卢旺达</t>
+          <t>索马里</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>103</v>
+        <v>269</v>
       </c>
       <c r="E21" t="n">
-        <v>110</v>
+        <v>286</v>
       </c>
       <c r="F21" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
@@ -7451,25 +7480,25 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>马达加斯加</t>
+          <t>坦桑尼亚</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>马达加斯加</t>
+          <t>坦桑尼亚</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>82</v>
+        <v>263</v>
       </c>
       <c r="E22" t="n">
-        <v>93</v>
+        <v>284</v>
       </c>
       <c r="F22" t="n">
         <v>11</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -7480,25 +7509,25 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>多哥</t>
+          <t>马里</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>多哥</t>
+          <t>马里</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>44</v>
+        <v>187</v>
       </c>
       <c r="E23" t="n">
-        <v>70</v>
+        <v>258</v>
       </c>
       <c r="F23" t="n">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
@@ -7518,16 +7547,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>50</v>
+        <v>164</v>
       </c>
       <c r="E24" t="n">
-        <v>60</v>
+        <v>186</v>
       </c>
       <c r="F24" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -7538,25 +7567,25 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>马里</t>
+          <t>加蓬</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>马里</t>
+          <t>加蓬</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>36</v>
+        <v>141</v>
       </c>
       <c r="E25" t="n">
-        <v>59</v>
+        <v>166</v>
       </c>
       <c r="F25" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G25" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -7567,25 +7596,25 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>埃塞俄比亚</t>
+          <t>苏丹</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>埃塞俄比亚</t>
+          <t>苏丹</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="E26" t="n">
-        <v>55</v>
+        <v>162</v>
       </c>
       <c r="F26" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
@@ -7596,22 +7625,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>乌干达</t>
+          <t>卢旺达</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>乌干达</t>
+          <t>卢旺达</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E27" t="n">
-        <v>52</v>
+        <v>153</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -7625,25 +7654,25 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>赞比亚共和国</t>
+          <t>马达加斯加</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>赞比亚共和国</t>
+          <t>马达加斯加</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="E28" t="n">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="F28" t="n">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -7654,25 +7683,25 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>加蓬</t>
+          <t>埃塞俄比亚</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>加蓬</t>
+          <t>埃塞俄比亚</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="E29" t="n">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -7683,25 +7712,25 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>几内亚比绍</t>
+          <t>利比里亚</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>几内亚比绍</t>
+          <t>利比里亚</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="E30" t="n">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -7712,25 +7741,25 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>厄立特里亚</t>
+          <t>多哥</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>厄立特里亚</t>
+          <t>多哥</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E31" t="n">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -7741,25 +7770,25 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>利比里亚</t>
+          <t>赤道几内亚</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>利比里亚</t>
+          <t>赤道几内亚</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="E32" t="n">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="F32" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -7770,25 +7799,25 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>贝宁</t>
+          <t>赞比亚共和国</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>贝宁</t>
+          <t>赞比亚共和国</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E33" t="n">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="F33" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -7799,22 +7828,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>坦桑尼亚</t>
+          <t>佛得角</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>坦桑尼亚</t>
+          <t>佛得角</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="E34" t="n">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="F34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -7828,25 +7857,25 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>利比亚</t>
+          <t>乌干达</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>利比亚</t>
+          <t>乌干达</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E35" t="n">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="F35" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -7857,25 +7886,25 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>安哥拉</t>
+          <t>塞拉利昂</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>安哥拉</t>
+          <t>塞拉利昂</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E36" t="n">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -7886,25 +7915,25 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>赤道几内亚</t>
+          <t>利比亚</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>赤道几内亚</t>
+          <t>利比亚</t>
         </is>
       </c>
       <c r="D37" t="n">
+        <v>44</v>
+      </c>
+      <c r="E37" t="n">
+        <v>60</v>
+      </c>
+      <c r="F37" t="n">
         <v>15</v>
       </c>
-      <c r="E37" t="n">
-        <v>18</v>
-      </c>
-      <c r="F37" t="n">
-        <v>3</v>
-      </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -7915,25 +7944,25 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>莫桑比克</t>
+          <t>贝宁</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>莫桑比克</t>
+          <t>贝宁</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E38" t="n">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="F38" t="n">
+        <v>27</v>
+      </c>
+      <c r="G38" t="n">
         <v>1</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -7944,19 +7973,19 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>纳米比亚</t>
+          <t>几内亚比绍</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>纳米比亚</t>
+          <t>几内亚比绍</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="E39" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="F39" t="n">
         <v>3</v>
@@ -7973,25 +8002,25 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>苏丹</t>
+          <t>莫桑比克</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>苏丹</t>
+          <t>莫桑比克</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E40" t="n">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="F40" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -8002,25 +8031,25 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>索马里</t>
+          <t>厄立特里亚</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>索马里</t>
+          <t>厄立特里亚</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E41" t="n">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -8031,22 +8060,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>斯威士兰</t>
+          <t>乍得</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>斯威士兰</t>
+          <t>乍得</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="E42" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="F42" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -8060,22 +8089,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>津巴布韦</t>
+          <t>马拉维</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>津巴布韦</t>
+          <t>马拉维</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E43" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G43" t="n">
         <v>3</v>
@@ -8089,25 +8118,25 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>中非共和国</t>
+          <t>斯威士兰</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>中非共和国</t>
+          <t>斯威士兰</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E44" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -8118,25 +8147,25 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>塞舌尔</t>
+          <t>津巴布韦</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>塞舌尔</t>
+          <t>津巴布韦</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E45" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -8147,25 +8176,25 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>乍得</t>
+          <t>安哥拉</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>乍得</t>
+          <t>安哥拉</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E46" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -8176,19 +8205,19 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>马拉维</t>
+          <t>博茨瓦纳</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>马拉维</t>
+          <t>博茨瓦纳</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E47" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
@@ -8205,25 +8234,25 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>佛得角</t>
+          <t>中非共和国</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>佛得角</t>
+          <t>中非共和国</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E48" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -8234,25 +8263,25 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>毛里塔尼亚</t>
+          <t>纳米比亚</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>毛里塔尼亚</t>
+          <t>纳米比亚</t>
         </is>
       </c>
       <c r="D49" t="n">
+        <v>13</v>
+      </c>
+      <c r="E49" t="n">
+        <v>16</v>
+      </c>
+      <c r="F49" t="n">
         <v>3</v>
       </c>
-      <c r="E49" t="n">
-        <v>6</v>
-      </c>
-      <c r="F49" t="n">
-        <v>2</v>
-      </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -8263,22 +8292,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>博茨瓦纳</t>
+          <t>布隆迪共和国</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>博茨瓦纳</t>
+          <t>布隆迪共和国</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E50" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -8292,19 +8321,19 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>塞拉利昂</t>
+          <t>塞舌尔</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>塞拉利昂</t>
+          <t>塞舌尔</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E51" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
@@ -8321,25 +8350,25 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>留尼汪</t>
+          <t>冈比亚</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>留尼汪</t>
+          <t>冈比亚</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E52" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -8350,25 +8379,25 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>圣多美和普林西比</t>
+          <t>毛里塔尼亚</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>圣多美和普林西比</t>
+          <t>毛里塔尼亚</t>
         </is>
       </c>
       <c r="D53" t="n">
         <v>4</v>
       </c>
       <c r="E53" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -8379,25 +8408,25 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>冈比亚</t>
+          <t>留尼汪</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>冈比亚</t>
+          <t>留尼汪</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E54" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -8408,19 +8437,19 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>布隆迪共和国</t>
+          <t>圣多美和普林西比</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>布隆迪共和国</t>
+          <t>圣多美和普林西比</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -8446,10 +8475,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
@@ -8511,16 +8540,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>714843</v>
+        <v>1135833</v>
       </c>
       <c r="C2" t="n">
-        <v>168195</v>
+        <v>362282</v>
       </c>
       <c r="D2" t="n">
-        <v>485751</v>
+        <v>661835</v>
       </c>
       <c r="E2" t="n">
-        <v>60897</v>
+        <v>111716</v>
       </c>
     </row>
     <row r="3">
@@ -8530,16 +8559,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>461864</v>
+        <v>908610</v>
       </c>
       <c r="C3" t="n">
-        <v>26900</v>
+        <v>90605</v>
       </c>
       <c r="D3" t="n">
-        <v>419280</v>
+        <v>767634</v>
       </c>
       <c r="E3" t="n">
-        <v>15684</v>
+        <v>50371</v>
       </c>
     </row>
     <row r="4">
@@ -8549,16 +8578,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>340344</v>
+        <v>510428</v>
       </c>
       <c r="C4" t="n">
-        <v>204991</v>
+        <v>278296</v>
       </c>
       <c r="D4" t="n">
-        <v>122294</v>
+        <v>211515</v>
       </c>
       <c r="E4" t="n">
-        <v>13059</v>
+        <v>20617</v>
       </c>
     </row>
     <row r="5">
@@ -8568,16 +8597,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35153</v>
+        <v>96175</v>
       </c>
       <c r="C5" t="n">
-        <v>3260</v>
+        <v>39436</v>
       </c>
       <c r="D5" t="n">
-        <v>30524</v>
+        <v>52185</v>
       </c>
       <c r="E5" t="n">
-        <v>1369</v>
+        <v>4554</v>
       </c>
     </row>
     <row r="6">
@@ -8587,16 +8616,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12027</v>
+        <v>26693</v>
       </c>
       <c r="C6" t="n">
-        <v>1345</v>
+        <v>6721</v>
       </c>
       <c r="D6" t="n">
-        <v>10104</v>
+        <v>18725</v>
       </c>
       <c r="E6" t="n">
-        <v>578</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="7">
@@ -8606,16 +8635,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7254</v>
+        <v>8009</v>
       </c>
       <c r="C7" t="n">
-        <v>436</v>
+        <v>5356</v>
       </c>
       <c r="D7" t="n">
-        <v>6761</v>
+        <v>2556</v>
       </c>
       <c r="E7" t="n">
-        <v>57</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
@@ -8631,10 +8660,10 @@
         <v>574</v>
       </c>
       <c r="D8" t="n">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
